--- a/SlotClient/Assets/StreamingAssets/术语解释.xlsx
+++ b/SlotClient/Assets/StreamingAssets/术语解释.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
   <si>
     <t>https://www.zhihu.com/question/21320284</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1553,14 +1553,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Play Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1574,33 +1566,183 @@
   </si>
   <si>
     <t>Scatter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WILD substitutes any other symbol except BOUNDS and SCATTER.
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是摇出来的在屏幕上各个轴上的图象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散符号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一般是一个特殊图标，用来触发免费游戏。一般都是3个scatter触发免费游戏。
 有的是从左到右，有的是只要有3个就可以。每个公司的机器不一样。
-你在paytable里面是可以找到scatter图标的。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any 3 or more scatters trigger The Free Games.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WILD substitutes any other symbol except BOUNDS and SCATTER.
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列</t>
+你在paytable里面是可以找到scatter图标的。
+有的翻译成散步符号，比较搞笑，只要屏幕上出现了这个符号就有奖。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇出了大礼包，奖赏，通常送的是让你免费摇多少轮的老虎机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplier </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中了以后可以翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍以上，要看各个老虎机的规定</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jackpot </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积大奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">progressive jackpot </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chip </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚，轴，轮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注限额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获胜组合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winning Combination</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低投注是1個籌碼，最大投注20個籌碼，單個籌碼金額是$0.50美元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賭注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全押</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 投注金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單個籌碼金額乘以激活的賠付線數量就是你本次旋轉的投注金額。比如，你選擇了10個賠付線，那麼你本次的投注金額就是$5.00=$0.50X10。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始轉動卷軸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇所有20個賠付線，如果你點擊了“全押”按鈕，不僅激活全部20個賠付線，而且自動開始轉動卷軸。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any 3 or more scatters trigger The Free Games.
+3 or more on any reel starts the Free Spin.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BET MAX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">limit </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1608,7 +1750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,6 +1832,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1750,7 +1900,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1796,6 +1946,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3116,7 +3269,7 @@
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -3263,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -3296,7 +3449,9 @@
       <c r="B2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="18" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -3305,15 +3460,18 @@
       <c r="B3" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -3326,21 +3484,21 @@
         <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
@@ -3348,9 +3506,11 @@
         <v>212</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>215</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
@@ -3358,7 +3518,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -3369,47 +3529,115 @@
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="17" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="19" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="21" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="43.8" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="47.4" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SlotClient/Assets/StreamingAssets/术语解释.xlsx
+++ b/SlotClient/Assets/StreamingAssets/术语解释.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="介绍" sheetId="6" r:id="rId1"/>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -3418,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>

--- a/SlotClient/Assets/StreamingAssets/术语解释.xlsx
+++ b/SlotClient/Assets/StreamingAssets/术语解释.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="介绍" sheetId="6" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>常用老虎机术语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>列</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -145,15 +141,6 @@
   </si>
   <si>
     <t>奖金特色老虎机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bonus Feature Slots</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">很多老虎机带有奖金特色。可以说这意味着“游戏中还有游戏”。
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1373,10 +1360,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>我们中奖得分时显示分数的地方。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>彩金栏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1745,12 +1728,76 @@
     <t xml:space="preserve">limit </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>常用老虎机术语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很多老虎机带有奖金特色。可以说这意味着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏中还有游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们中奖得分时显示分数的地方。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus Feature Slots</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,11 +2005,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2036,6 +2088,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2070,6 +2123,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2245,23 +2299,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2272,249 +2326,249 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="109.2" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="54.6" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8" t="s">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="55.2" customHeight="1">
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="55.2" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C18" s="9" t="s">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C19" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C20" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C21" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C22" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C24" s="10" t="s">
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C26" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B28" s="6" t="s">
+    <row r="37" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C29" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B30" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="38" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2528,23 +2582,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2555,52 +2609,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2609,23 +2663,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2636,54 +2690,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="208.2" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="208.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,23 +2746,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="109.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2719,178 +2773,178 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="15" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="43.8" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="15" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2902,23 +2956,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2929,52 +2983,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2983,23 +3037,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3010,396 +3064,396 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="196.8" customHeight="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="11" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="66.599999999999994" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1"/>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="54" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="11" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="39" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="139.80000000000001" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1">
-      <c r="B30" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1">
-      <c r="B31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1">
-      <c r="B32" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
-      <c r="C33" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A47" s="3" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C49" s="3" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3415,23 +3469,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3442,200 +3495,200 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="62.4" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B10" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="43.8" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="47.4" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3646,23 +3699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3673,52 +3726,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3727,23 +3780,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3754,52 +3807,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,23 +3861,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3835,52 +3888,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3889,23 +3942,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3916,52 +3969,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3970,23 +4023,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3997,54 +4050,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4056,23 +4109,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4083,55 +4136,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="22" spans="3:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="23" spans="3:3" s="6" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
